--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/42_K.Maraş_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/42_K.Maraş_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4625D12F-F529-4E4B-8819-09929130F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFB3DAE-D6D3-418D-AA76-4C8596AA8326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{3DE5F450-5397-42FC-A0AA-2CFF97D499BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{F557A201-9B8D-47E0-ABA5-0287D607AF03}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="134" r:id="rId1"/>
@@ -857,10 +857,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{967DBA15-396C-455C-9391-8E0B6F386041}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{678A8F12-2652-4CAA-BE8C-3EC3A84191E4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{E25F1B72-8FA0-4AE1-B33B-C4E97825E361}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{A5D3F4E4-D100-4559-8FC3-A797A44E4D0D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E1FCBF73-8B3E-47E1-BD9B-62292BDC0A1C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{46A115B1-CDC4-4D91-A088-AAC9466F7039}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{CC84A0CB-C7D7-46CA-A233-DD703EE52C2E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F2F12815-702E-4DF2-8F59-DE1B6CFC904D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA3C5F-7A98-411A-B17F-BBD8E1E508D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B922ADC-5A52-44C8-A057-7EF781816C95}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2513,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27948F19-0D57-46C4-89FD-61EEC77F58E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC311EC-2656-4413-931E-E0CB58C2CAF7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3802,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA0BEE9-F6E1-4EA7-8FC2-03DA4A7FA309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1499AF-4959-4C49-BBE9-3B007C514077}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5081,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB948241-3092-4788-834F-CDA361CBAD41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D799A2-CA58-4A1D-8810-457AD978130A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6370,7 +6370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38569D9-179F-4505-9072-D445B308A73A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD800692-C630-4876-9EED-43B1EFD12FA5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7653,7 +7653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27246FF1-F5C5-4561-BEC9-AC1BD915F914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E7AAF-2E3D-452B-8D0E-9BEF9165C9DE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8936,7 +8936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2160743A-EF3D-4CCD-BB0F-2C2CB969F890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7679E8F6-A4C7-4468-B24B-3AECAD75AADF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10219,7 +10219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59559289-4A8C-477E-96A0-47444E9EA6EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88603DC3-38CD-4EA3-BF78-4830CE1C0AFF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11506,7 +11506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F9CD0B-12B4-48A8-97DA-60ECC0B2CA68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDA1EBF-B56E-4639-8269-CF944D2B64C6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12789,7 +12789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2AAB49-E220-4116-BEB5-071A8AF9754C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B49FE2-5D27-4AE9-8CCB-F7AB9D86542A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14078,7 +14078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBD384F-AD54-4354-A989-89616138FB3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A37435-8F6D-4FEA-9055-68CC0B05ABDB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
